--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.96984461224647</v>
+        <v>7.616180666666666</v>
       </c>
       <c r="N2">
-        <v>5.96984461224647</v>
+        <v>22.848542</v>
       </c>
       <c r="O2">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="P2">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="Q2">
-        <v>5.003422630073006</v>
+        <v>7.656114840628888</v>
       </c>
       <c r="R2">
-        <v>5.003422630073006</v>
+        <v>68.90503356565999</v>
       </c>
       <c r="S2">
-        <v>0.003274836049556832</v>
+        <v>0.004527785644845866</v>
       </c>
       <c r="T2">
-        <v>0.003274836049556832</v>
+        <v>0.004527785644845865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.5745337827842</v>
+        <v>86.98680366666667</v>
       </c>
       <c r="N3">
-        <v>86.5745337827842</v>
+        <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="P3">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="Q3">
-        <v>72.5595069305832</v>
+        <v>87.44290447389223</v>
       </c>
       <c r="R3">
-        <v>72.5595069305832</v>
+        <v>786.9861402650299</v>
       </c>
       <c r="S3">
-        <v>0.04749158857901145</v>
+        <v>0.05171326917922716</v>
       </c>
       <c r="T3">
-        <v>0.04749158857901145</v>
+        <v>0.05171326917922715</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.809150119642212</v>
+        <v>0.9360126666666666</v>
       </c>
       <c r="N4">
-        <v>0.809150119642212</v>
+        <v>2.808038</v>
       </c>
       <c r="O4">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="P4">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="Q4">
-        <v>0.6781617081689257</v>
+        <v>0.9409204930822221</v>
       </c>
       <c r="R4">
-        <v>0.6781617081689257</v>
+        <v>8.468284437739998</v>
       </c>
       <c r="S4">
-        <v>0.0004438698414145823</v>
+        <v>0.0005564553811171712</v>
       </c>
       <c r="T4">
-        <v>0.0004438698414145823</v>
+        <v>0.0005564553811171711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H5">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.090419340765</v>
+        <v>25.99049233333334</v>
       </c>
       <c r="N5">
-        <v>24.090419340765</v>
+        <v>77.97147700000001</v>
       </c>
       <c r="O5">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="P5">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="Q5">
-        <v>20.19056728047307</v>
+        <v>26.12676914813445</v>
       </c>
       <c r="R5">
-        <v>20.19056728047307</v>
+        <v>235.14092233321</v>
       </c>
       <c r="S5">
-        <v>0.01321511342929092</v>
+        <v>0.01545123247986807</v>
       </c>
       <c r="T5">
-        <v>0.01321511342929092</v>
+        <v>0.01545123247986806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H6">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J6">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.96984461224647</v>
+        <v>7.616180666666666</v>
       </c>
       <c r="N6">
-        <v>5.96984461224647</v>
+        <v>22.848542</v>
       </c>
       <c r="O6">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="P6">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="Q6">
-        <v>60.39136662674802</v>
+        <v>78.14078997363956</v>
       </c>
       <c r="R6">
-        <v>60.39136662674802</v>
+        <v>703.2671097627559</v>
       </c>
       <c r="S6">
-        <v>0.03952730743203119</v>
+        <v>0.04621204807979327</v>
       </c>
       <c r="T6">
-        <v>0.03952730743203119</v>
+        <v>0.04621204807979326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H7">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J7">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.5745337827842</v>
+        <v>86.98680366666667</v>
       </c>
       <c r="N7">
-        <v>86.5745337827842</v>
+        <v>260.960411</v>
       </c>
       <c r="O7">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="P7">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="Q7">
-        <v>875.7940532473018</v>
+        <v>892.4706297402111</v>
       </c>
       <c r="R7">
-        <v>875.7940532473018</v>
+        <v>8032.235667661898</v>
       </c>
       <c r="S7">
-        <v>0.5732240007716299</v>
+        <v>0.5278023893189602</v>
       </c>
       <c r="T7">
-        <v>0.5732240007716299</v>
+        <v>0.5278023893189601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H8">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J8">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.809150119642212</v>
+        <v>0.9360126666666666</v>
       </c>
       <c r="N8">
-        <v>0.809150119642212</v>
+        <v>2.808038</v>
       </c>
       <c r="O8">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="P8">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="Q8">
-        <v>8.185419337573268</v>
+        <v>9.603339573964888</v>
       </c>
       <c r="R8">
-        <v>8.185419337573268</v>
+        <v>86.43005616568399</v>
       </c>
       <c r="S8">
-        <v>0.005357513907841402</v>
+        <v>0.005679364007816627</v>
       </c>
       <c r="T8">
-        <v>0.005357513907841402</v>
+        <v>0.005679364007816626</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H9">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J9">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.090419340765</v>
+        <v>25.99049233333334</v>
       </c>
       <c r="N9">
-        <v>24.090419340765</v>
+        <v>77.97147700000001</v>
       </c>
       <c r="O9">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="P9">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="Q9">
-        <v>243.7003709637218</v>
+        <v>266.6582755342318</v>
       </c>
       <c r="R9">
-        <v>243.7003709637218</v>
+        <v>2399.924479808086</v>
       </c>
       <c r="S9">
-        <v>0.1595065656307998</v>
+        <v>0.157700287570931</v>
       </c>
       <c r="T9">
-        <v>0.1595065656307998</v>
+        <v>0.157700287570931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H10">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.96984461224647</v>
+        <v>7.616180666666666</v>
       </c>
       <c r="N10">
-        <v>5.96984461224647</v>
+        <v>22.848542</v>
       </c>
       <c r="O10">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="P10">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="Q10">
-        <v>2.136303982258641</v>
+        <v>2.923661353416667</v>
       </c>
       <c r="R10">
-        <v>2.136303982258641</v>
+        <v>26.31295218075</v>
       </c>
       <c r="S10">
-        <v>0.001398251918968983</v>
+        <v>0.001729037792920991</v>
       </c>
       <c r="T10">
-        <v>0.001398251918968983</v>
+        <v>0.001729037792920991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H11">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.5745337827842</v>
+        <v>86.98680366666667</v>
       </c>
       <c r="N11">
-        <v>86.5745337827842</v>
+        <v>260.960411</v>
       </c>
       <c r="O11">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="P11">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="Q11">
-        <v>30.98062567708108</v>
+        <v>33.39205925754167</v>
       </c>
       <c r="R11">
-        <v>30.98062567708108</v>
+        <v>300.528533317875</v>
       </c>
       <c r="S11">
-        <v>0.02027741354394657</v>
+        <v>0.01974788645486416</v>
       </c>
       <c r="T11">
-        <v>0.02027741354394657</v>
+        <v>0.01974788645486416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H12">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.809150119642212</v>
+        <v>0.9360126666666666</v>
       </c>
       <c r="N12">
-        <v>0.809150119642212</v>
+        <v>2.808038</v>
       </c>
       <c r="O12">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="P12">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="Q12">
-        <v>0.2895537045119571</v>
+        <v>0.3593118624166667</v>
       </c>
       <c r="R12">
-        <v>0.2895537045119571</v>
+        <v>3.23380676175</v>
       </c>
       <c r="S12">
-        <v>0.0001895184516532931</v>
+        <v>0.0002124951266456422</v>
       </c>
       <c r="T12">
-        <v>0.0001895184516532931</v>
+        <v>0.0002124951266456422</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H13">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.090419340765</v>
+        <v>25.99049233333334</v>
       </c>
       <c r="N13">
-        <v>24.090419340765</v>
+        <v>77.97147700000001</v>
       </c>
       <c r="O13">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="P13">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="Q13">
-        <v>8.620736738504593</v>
+        <v>9.977100244458335</v>
       </c>
       <c r="R13">
-        <v>8.620736738504593</v>
+        <v>89.79390220012502</v>
       </c>
       <c r="S13">
-        <v>0.005642437493748534</v>
+        <v>0.005900404082801863</v>
       </c>
       <c r="T13">
-        <v>0.005642437493748534</v>
+        <v>0.005900404082801863</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H14">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.96984461224647</v>
+        <v>7.616180666666666</v>
       </c>
       <c r="N14">
-        <v>5.96984461224647</v>
+        <v>22.848542</v>
       </c>
       <c r="O14">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="P14">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="Q14">
-        <v>10.13116445117248</v>
+        <v>17.24826534545133</v>
       </c>
       <c r="R14">
-        <v>10.13116445117248</v>
+        <v>155.234388109062</v>
       </c>
       <c r="S14">
-        <v>0.006631041393399976</v>
+        <v>0.01020053249661182</v>
       </c>
       <c r="T14">
-        <v>0.006631041393399976</v>
+        <v>0.01020053249661182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H15">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.5745337827842</v>
+        <v>86.98680366666667</v>
       </c>
       <c r="N15">
-        <v>86.5745337827842</v>
+        <v>260.960411</v>
       </c>
       <c r="O15">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="P15">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="Q15">
-        <v>146.9218875877773</v>
+        <v>196.9978834354523</v>
       </c>
       <c r="R15">
-        <v>146.9218875877773</v>
+        <v>1772.980950919071</v>
       </c>
       <c r="S15">
-        <v>0.0961631925813089</v>
+        <v>0.1165035017435544</v>
       </c>
       <c r="T15">
-        <v>0.0961631925813089</v>
+        <v>0.1165035017435544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H16">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.809150119642212</v>
+        <v>0.9360126666666666</v>
       </c>
       <c r="N16">
-        <v>0.809150119642212</v>
+        <v>2.808038</v>
       </c>
       <c r="O16">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="P16">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="Q16">
-        <v>1.373173584948024</v>
+        <v>2.119775718035333</v>
       </c>
       <c r="R16">
-        <v>1.373173584948024</v>
+        <v>19.077981462318</v>
       </c>
       <c r="S16">
-        <v>0.0008987684412782385</v>
+        <v>0.001253624098672066</v>
       </c>
       <c r="T16">
-        <v>0.0008987684412782385</v>
+        <v>0.001253624098672066</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H17">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.090419340765</v>
+        <v>25.99049233333334</v>
       </c>
       <c r="N17">
-        <v>24.090419340765</v>
+        <v>77.97147700000001</v>
       </c>
       <c r="O17">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="P17">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="Q17">
-        <v>40.88280615182615</v>
+        <v>58.86033011089967</v>
       </c>
       <c r="R17">
-        <v>40.88280615182615</v>
+        <v>529.742970998097</v>
       </c>
       <c r="S17">
-        <v>0.02675858053411942</v>
+        <v>0.03480968654136973</v>
       </c>
       <c r="T17">
-        <v>0.02675858053411942</v>
+        <v>0.03480968654136973</v>
       </c>
     </row>
   </sheetData>
